--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.684825825633</v>
+        <v>125.4603323333333</v>
       </c>
       <c r="H2">
-        <v>123.684825825633</v>
+        <v>376.380997</v>
       </c>
       <c r="I2">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="J2">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.17547212924119</v>
+        <v>2.249867</v>
       </c>
       <c r="N2">
-        <v>3.17547212924119</v>
+        <v>6.749601</v>
       </c>
       <c r="O2">
-        <v>0.02463946613427846</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P2">
-        <v>0.02463946613427846</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q2">
-        <v>392.7577172193485</v>
+        <v>282.2690615257997</v>
       </c>
       <c r="R2">
-        <v>392.7577172193485</v>
+        <v>2540.421553732197</v>
       </c>
       <c r="S2">
-        <v>0.003629479516782869</v>
+        <v>0.002313897685951082</v>
       </c>
       <c r="T2">
-        <v>0.003629479516782869</v>
+        <v>0.002313897685951082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.684825825633</v>
+        <v>125.4603323333333</v>
       </c>
       <c r="H3">
-        <v>123.684825825633</v>
+        <v>376.380997</v>
       </c>
       <c r="I3">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="J3">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.8690490316982</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N3">
-        <v>47.8690490316982</v>
+        <v>9.707891</v>
       </c>
       <c r="O3">
-        <v>0.3714306926631688</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P3">
-        <v>0.3714306926631688</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q3">
-        <v>5920.674991924277</v>
+        <v>405.9850770385919</v>
       </c>
       <c r="R3">
-        <v>5920.674991924277</v>
+        <v>3653.865693347327</v>
       </c>
       <c r="S3">
-        <v>0.05471303978660341</v>
+        <v>0.003328058431952545</v>
       </c>
       <c r="T3">
-        <v>0.05471303978660341</v>
+        <v>0.003328058431952546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.684825825633</v>
+        <v>125.4603323333333</v>
       </c>
       <c r="H4">
-        <v>123.684825825633</v>
+        <v>376.380997</v>
       </c>
       <c r="I4">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="J4">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.8329517492171</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N4">
-        <v>77.8329517492171</v>
+        <v>146.079468</v>
       </c>
       <c r="O4">
-        <v>0.6039298412025528</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P4">
-        <v>0.6039298412025528</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q4">
-        <v>9626.755080596815</v>
+        <v>6109.059534118843</v>
       </c>
       <c r="R4">
-        <v>9626.755080596815</v>
+        <v>54981.53580706959</v>
       </c>
       <c r="S4">
-        <v>0.08896097733096381</v>
+        <v>0.05007895177361818</v>
       </c>
       <c r="T4">
-        <v>0.08896097733096381</v>
+        <v>0.05007895177361819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>207.196120960201</v>
+        <v>125.4603323333333</v>
       </c>
       <c r="H5">
-        <v>207.196120960201</v>
+        <v>376.380997</v>
       </c>
       <c r="I5">
-        <v>0.2467619847687582</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="J5">
-        <v>0.2467619847687582</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.17547212924119</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N5">
-        <v>3.17547212924119</v>
+        <v>253.384305</v>
       </c>
       <c r="O5">
-        <v>0.02463946613427846</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P5">
-        <v>0.02463946613427846</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q5">
-        <v>657.9455073960046</v>
+        <v>10596.55970445023</v>
       </c>
       <c r="R5">
-        <v>657.9455073960046</v>
+        <v>95369.03734005208</v>
       </c>
       <c r="S5">
-        <v>0.006080083566937153</v>
+        <v>0.08686518758602516</v>
       </c>
       <c r="T5">
-        <v>0.006080083566937153</v>
+        <v>0.0868651875860252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>207.196120960201</v>
+        <v>125.4603323333333</v>
       </c>
       <c r="H6">
-        <v>207.196120960201</v>
+        <v>376.380997</v>
       </c>
       <c r="I6">
-        <v>0.2467619847687582</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="J6">
-        <v>0.2467619847687582</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>47.8690490316982</v>
+        <v>0.1183283333333333</v>
       </c>
       <c r="N6">
-        <v>47.8690490316982</v>
+        <v>0.354985</v>
       </c>
       <c r="O6">
-        <v>0.3714306926631688</v>
+        <v>0.0008527630389675126</v>
       </c>
       <c r="P6">
-        <v>0.3714306926631688</v>
+        <v>0.0008527630389675127</v>
       </c>
       <c r="Q6">
-        <v>9918.281273421531</v>
+        <v>14.84551202444944</v>
       </c>
       <c r="R6">
-        <v>9918.281273421531</v>
+        <v>133.609608220045</v>
       </c>
       <c r="S6">
-        <v>0.09165497492559817</v>
+        <v>0.0001216959298849435</v>
       </c>
       <c r="T6">
-        <v>0.09165497492559817</v>
+        <v>0.0001216959298849436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>207.196120960201</v>
+        <v>207.849991</v>
       </c>
       <c r="H7">
-        <v>207.196120960201</v>
+        <v>623.549973</v>
       </c>
       <c r="I7">
-        <v>0.2467619847687582</v>
+        <v>0.2364238369850373</v>
       </c>
       <c r="J7">
-        <v>0.2467619847687582</v>
+        <v>0.2364238369850374</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>77.8329517492171</v>
+        <v>2.249867</v>
       </c>
       <c r="N7">
-        <v>77.8329517492171</v>
+        <v>6.749601</v>
       </c>
       <c r="O7">
-        <v>0.6039298412025528</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P7">
-        <v>0.6039298412025528</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q7">
-        <v>16126.68568532028</v>
+        <v>467.6348357011971</v>
       </c>
       <c r="R7">
-        <v>16126.68568532028</v>
+        <v>4208.713521310773</v>
       </c>
       <c r="S7">
-        <v>0.1490269262762229</v>
+        <v>0.003833431685180322</v>
       </c>
       <c r="T7">
-        <v>0.1490269262762229</v>
+        <v>0.003833431685180323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>240.160036764417</v>
+        <v>207.849991</v>
       </c>
       <c r="H8">
-        <v>240.160036764417</v>
+        <v>623.549973</v>
       </c>
       <c r="I8">
-        <v>0.2860206410211165</v>
+        <v>0.2364238369850373</v>
       </c>
       <c r="J8">
-        <v>0.2860206410211165</v>
+        <v>0.2364238369850374</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.17547212924119</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N8">
-        <v>3.17547212924119</v>
+        <v>9.707891</v>
       </c>
       <c r="O8">
-        <v>0.02463946613427846</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P8">
-        <v>0.02463946613427846</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q8">
-        <v>762.6215033029456</v>
+        <v>672.5950189929937</v>
       </c>
       <c r="R8">
-        <v>762.6215033029456</v>
+        <v>6053.355170936943</v>
       </c>
       <c r="S8">
-        <v>0.007047395898144414</v>
+        <v>0.005513590648643805</v>
       </c>
       <c r="T8">
-        <v>0.007047395898144414</v>
+        <v>0.005513590648643808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>240.160036764417</v>
+        <v>207.849991</v>
       </c>
       <c r="H9">
-        <v>240.160036764417</v>
+        <v>623.549973</v>
       </c>
       <c r="I9">
-        <v>0.2860206410211165</v>
+        <v>0.2364238369850373</v>
       </c>
       <c r="J9">
-        <v>0.2860206410211165</v>
+        <v>0.2364238369850374</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.8690490316982</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N9">
-        <v>47.8690490316982</v>
+        <v>146.079468</v>
       </c>
       <c r="O9">
-        <v>0.3714306926631688</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P9">
-        <v>0.3714306926631688</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q9">
-        <v>11496.23257533032</v>
+        <v>10120.8720363616</v>
       </c>
       <c r="R9">
-        <v>11496.23257533032</v>
+        <v>91087.84832725437</v>
       </c>
       <c r="S9">
-        <v>0.1062368448104368</v>
+        <v>0.08296574289139236</v>
       </c>
       <c r="T9">
-        <v>0.1062368448104368</v>
+        <v>0.0829657428913924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>240.160036764417</v>
+        <v>207.849991</v>
       </c>
       <c r="H10">
-        <v>240.160036764417</v>
+        <v>623.549973</v>
       </c>
       <c r="I10">
-        <v>0.2860206410211165</v>
+        <v>0.2364238369850373</v>
       </c>
       <c r="J10">
-        <v>0.2860206410211165</v>
+        <v>0.2364238369850374</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>77.8329517492171</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N10">
-        <v>77.8329517492171</v>
+        <v>253.384305</v>
       </c>
       <c r="O10">
-        <v>0.6039298412025528</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P10">
-        <v>0.6039298412025528</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q10">
-        <v>18692.36455357507</v>
+        <v>17555.30850459708</v>
       </c>
       <c r="R10">
-        <v>18692.36455357507</v>
+        <v>157997.7765413738</v>
       </c>
       <c r="S10">
-        <v>0.1727364003125352</v>
+        <v>0.1439094582501091</v>
       </c>
       <c r="T10">
-        <v>0.1727364003125352</v>
+        <v>0.1439094582501091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>169.903057080677</v>
+        <v>207.849991</v>
       </c>
       <c r="H11">
-        <v>169.903057080677</v>
+        <v>623.549973</v>
       </c>
       <c r="I11">
-        <v>0.2023474927484801</v>
+        <v>0.2364238369850373</v>
       </c>
       <c r="J11">
-        <v>0.2023474927484801</v>
+        <v>0.2364238369850374</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.17547212924119</v>
+        <v>0.1183283333333333</v>
       </c>
       <c r="N11">
-        <v>3.17547212924119</v>
+        <v>0.354985</v>
       </c>
       <c r="O11">
-        <v>0.02463946613427846</v>
+        <v>0.0008527630389675126</v>
       </c>
       <c r="P11">
-        <v>0.02463946613427846</v>
+        <v>0.0008527630389675127</v>
       </c>
       <c r="Q11">
-        <v>539.5224224325648</v>
+        <v>24.59454301837834</v>
       </c>
       <c r="R11">
-        <v>539.5224224325648</v>
+        <v>221.350887165405</v>
       </c>
       <c r="S11">
-        <v>0.00498573419493233</v>
+        <v>0.0002016135097117202</v>
       </c>
       <c r="T11">
-        <v>0.00498573419493233</v>
+        <v>0.0002016135097117203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>169.903057080677</v>
+        <v>240.299296</v>
       </c>
       <c r="H12">
-        <v>169.903057080677</v>
+        <v>720.897888</v>
       </c>
       <c r="I12">
-        <v>0.2023474927484801</v>
+        <v>0.2733340584321854</v>
       </c>
       <c r="J12">
-        <v>0.2023474927484801</v>
+        <v>0.2733340584321856</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>47.8690490316982</v>
+        <v>2.249867</v>
       </c>
       <c r="N12">
-        <v>47.8690490316982</v>
+        <v>6.749601</v>
       </c>
       <c r="O12">
-        <v>0.3714306926631688</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P12">
-        <v>0.3714306926631688</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q12">
-        <v>8133.097770030345</v>
+        <v>540.6414561936321</v>
       </c>
       <c r="R12">
-        <v>8133.097770030345</v>
+        <v>4865.773105742688</v>
       </c>
       <c r="S12">
-        <v>0.07515806939022349</v>
+        <v>0.004431902694732014</v>
       </c>
       <c r="T12">
-        <v>0.07515806939022349</v>
+        <v>0.004431902694732016</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>169.903057080677</v>
+        <v>240.299296</v>
       </c>
       <c r="H13">
-        <v>169.903057080677</v>
+        <v>720.897888</v>
       </c>
       <c r="I13">
-        <v>0.2023474927484801</v>
+        <v>0.2733340584321854</v>
       </c>
       <c r="J13">
-        <v>0.2023474927484801</v>
+        <v>0.2733340584321856</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>77.8329517492171</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N13">
-        <v>77.8329517492171</v>
+        <v>9.707891</v>
       </c>
       <c r="O13">
-        <v>0.6039298412025528</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P13">
-        <v>0.6039298412025528</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q13">
-        <v>13224.05644380481</v>
+        <v>777.5997909815786</v>
       </c>
       <c r="R13">
-        <v>13224.05644380481</v>
+        <v>6998.398118834208</v>
       </c>
       <c r="S13">
-        <v>0.1222036891633243</v>
+        <v>0.006374366171135844</v>
       </c>
       <c r="T13">
-        <v>0.1222036891633243</v>
+        <v>0.006374366171135847</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.71576821023319</v>
+        <v>240.299296</v>
       </c>
       <c r="H14">
-        <v>98.71576821023319</v>
+        <v>720.897888</v>
       </c>
       <c r="I14">
-        <v>0.1175663848272954</v>
+        <v>0.2733340584321854</v>
       </c>
       <c r="J14">
-        <v>0.1175663848272954</v>
+        <v>0.2733340584321856</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.17547212924119</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N14">
-        <v>3.17547212924119</v>
+        <v>146.079468</v>
       </c>
       <c r="O14">
-        <v>0.02463946613427846</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P14">
-        <v>0.02463946613427846</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q14">
-        <v>313.469170668229</v>
+        <v>11700.93110681817</v>
       </c>
       <c r="R14">
-        <v>313.469170668229</v>
+        <v>105308.3799613636</v>
       </c>
       <c r="S14">
-        <v>0.002896772957481692</v>
+        <v>0.09591826063114232</v>
       </c>
       <c r="T14">
-        <v>0.002896772957481692</v>
+        <v>0.09591826063114238</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.71576821023319</v>
+        <v>240.299296</v>
       </c>
       <c r="H15">
-        <v>98.71576821023319</v>
+        <v>720.897888</v>
       </c>
       <c r="I15">
-        <v>0.1175663848272954</v>
+        <v>0.2733340584321854</v>
       </c>
       <c r="J15">
-        <v>0.1175663848272954</v>
+        <v>0.2733340584321856</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.8690490316982</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N15">
-        <v>47.8690490316982</v>
+        <v>253.384305</v>
       </c>
       <c r="O15">
-        <v>0.3714306926631688</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P15">
-        <v>0.3714306926631688</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q15">
-        <v>4725.429948657407</v>
+        <v>20296.02336964976</v>
       </c>
       <c r="R15">
-        <v>4725.429948657407</v>
+        <v>182664.2103268478</v>
       </c>
       <c r="S15">
-        <v>0.04366776375030697</v>
+        <v>0.1663764397528533</v>
       </c>
       <c r="T15">
-        <v>0.04366776375030697</v>
+        <v>0.1663764397528534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>240.299296</v>
+      </c>
+      <c r="H16">
+        <v>720.897888</v>
+      </c>
+      <c r="I16">
+        <v>0.2733340584321854</v>
+      </c>
+      <c r="J16">
+        <v>0.2733340584321856</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.354985</v>
+      </c>
+      <c r="O16">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P16">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q16">
+        <v>28.43421519685333</v>
+      </c>
+      <c r="R16">
+        <v>255.90793677168</v>
+      </c>
+      <c r="S16">
+        <v>0.0002330891823219541</v>
+      </c>
+      <c r="T16">
+        <v>0.0002330891823219542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>98.71576821023319</v>
-      </c>
-      <c r="H16">
-        <v>98.71576821023319</v>
-      </c>
-      <c r="I16">
-        <v>0.1175663848272954</v>
-      </c>
-      <c r="J16">
-        <v>0.1175663848272954</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>77.8329517492171</v>
-      </c>
-      <c r="N16">
-        <v>77.8329517492171</v>
-      </c>
-      <c r="O16">
-        <v>0.6039298412025528</v>
-      </c>
-      <c r="P16">
-        <v>0.6039298412025528</v>
-      </c>
-      <c r="Q16">
-        <v>7683.339623993979</v>
-      </c>
-      <c r="R16">
-        <v>7683.339623993979</v>
-      </c>
-      <c r="S16">
-        <v>0.07100184811950669</v>
-      </c>
-      <c r="T16">
-        <v>0.07100184811950669</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>190.0452853333333</v>
+      </c>
+      <c r="H17">
+        <v>570.135856</v>
+      </c>
+      <c r="I17">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="J17">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.249867</v>
+      </c>
+      <c r="N17">
+        <v>6.749601</v>
+      </c>
+      <c r="O17">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="P17">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="Q17">
+        <v>427.5766159770507</v>
+      </c>
+      <c r="R17">
+        <v>3848.189543793456</v>
+      </c>
+      <c r="S17">
+        <v>0.003505054847060037</v>
+      </c>
+      <c r="T17">
+        <v>0.003505054847060038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>190.0452853333333</v>
+      </c>
+      <c r="H18">
+        <v>570.135856</v>
+      </c>
+      <c r="I18">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="J18">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N18">
+        <v>9.707891</v>
+      </c>
+      <c r="O18">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P18">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q18">
+        <v>614.9796383599662</v>
+      </c>
+      <c r="R18">
+        <v>5534.816745239696</v>
+      </c>
+      <c r="S18">
+        <v>0.005041289167208625</v>
+      </c>
+      <c r="T18">
+        <v>0.005041289167208627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>190.0452853333333</v>
+      </c>
+      <c r="H19">
+        <v>570.135856</v>
+      </c>
+      <c r="I19">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="J19">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N19">
+        <v>146.079468</v>
+      </c>
+      <c r="O19">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P19">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q19">
+        <v>9253.904725800512</v>
+      </c>
+      <c r="R19">
+        <v>83285.1425322046</v>
+      </c>
+      <c r="S19">
+        <v>0.07585878741118941</v>
+      </c>
+      <c r="T19">
+        <v>0.07585878741118944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>190.0452853333333</v>
+      </c>
+      <c r="H20">
+        <v>570.135856</v>
+      </c>
+      <c r="I20">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="J20">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N20">
+        <v>253.384305</v>
+      </c>
+      <c r="O20">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P20">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q20">
+        <v>16051.49751423779</v>
+      </c>
+      <c r="R20">
+        <v>144463.4776281401</v>
+      </c>
+      <c r="S20">
+        <v>0.131581983351192</v>
+      </c>
+      <c r="T20">
+        <v>0.131581983351192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>190.0452853333333</v>
+      </c>
+      <c r="H21">
+        <v>570.135856</v>
+      </c>
+      <c r="I21">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="J21">
+        <v>0.2161714578059467</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.354985</v>
+      </c>
+      <c r="O21">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P21">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q21">
+        <v>22.48774187135111</v>
+      </c>
+      <c r="R21">
+        <v>202.38967684216</v>
+      </c>
+      <c r="S21">
+        <v>0.0001843430292966365</v>
+      </c>
+      <c r="T21">
+        <v>0.0001843430292966366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>115.486529</v>
+      </c>
+      <c r="H22">
+        <v>346.459587</v>
+      </c>
+      <c r="I22">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="J22">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>2.249867</v>
+      </c>
+      <c r="N22">
+        <v>6.749601</v>
+      </c>
+      <c r="O22">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="P22">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="Q22">
+        <v>259.829330541643</v>
+      </c>
+      <c r="R22">
+        <v>2338.463974874787</v>
+      </c>
+      <c r="S22">
+        <v>0.002129948225401155</v>
+      </c>
+      <c r="T22">
+        <v>0.002129948225401156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>115.486529</v>
+      </c>
+      <c r="H23">
+        <v>346.459587</v>
+      </c>
+      <c r="I23">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="J23">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.707891</v>
+      </c>
+      <c r="O23">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P23">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q23">
+        <v>373.7102118334464</v>
+      </c>
+      <c r="R23">
+        <v>3363.391906501017</v>
+      </c>
+      <c r="S23">
+        <v>0.003063485561270636</v>
+      </c>
+      <c r="T23">
+        <v>0.003063485561270637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>115.486529</v>
+      </c>
+      <c r="H24">
+        <v>346.459587</v>
+      </c>
+      <c r="I24">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="J24">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N24">
+        <v>146.079468</v>
+      </c>
+      <c r="O24">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P24">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q24">
+        <v>5623.403572495524</v>
+      </c>
+      <c r="R24">
+        <v>50610.63215245972</v>
+      </c>
+      <c r="S24">
+        <v>0.0460977920967691</v>
+      </c>
+      <c r="T24">
+        <v>0.04609779209676911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>115.486529</v>
+      </c>
+      <c r="H25">
+        <v>346.459587</v>
+      </c>
+      <c r="I25">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="J25">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N25">
+        <v>253.384305</v>
+      </c>
+      <c r="O25">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P25">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q25">
+        <v>9754.157962509114</v>
+      </c>
+      <c r="R25">
+        <v>87787.42166258203</v>
+      </c>
+      <c r="S25">
+        <v>0.07995960809820536</v>
+      </c>
+      <c r="T25">
+        <v>0.07995960809820539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>115.486529</v>
+      </c>
+      <c r="H26">
+        <v>346.459587</v>
+      </c>
+      <c r="I26">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="J26">
+        <v>0.1313628553693985</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.354985</v>
+      </c>
+      <c r="O26">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P26">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q26">
+        <v>13.66532849902167</v>
+      </c>
+      <c r="R26">
+        <v>122.987956491195</v>
+      </c>
+      <c r="S26">
+        <v>0.0001120213877522581</v>
+      </c>
+      <c r="T26">
+        <v>0.0001120213877522581</v>
       </c>
     </row>
   </sheetData>
